--- a/data/trans_camb/P5B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; -0,71</t>
+          <t>-6,03; -0,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,2</t>
+          <t>-4,85; 1,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,79; -0,32</t>
+          <t>-5,9; -0,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; -0,8</t>
+          <t>-6,39; -0,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 2,82</t>
+          <t>-4,15; 2,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 0,0</t>
+          <t>-6,81; -0,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; -1,12</t>
+          <t>-5,11; -1,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,95</t>
+          <t>-3,87; 1,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; -0,86</t>
+          <t>-4,83; -0,86</t>
         </is>
       </c>
     </row>
@@ -1042,19 +1042,19 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 107,23</t>
+          <t>-100,0; 125,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 44,43</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 2,13</t>
+          <t>-5,04; 2,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,01; -0,9</t>
+          <t>-7,14; -0,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,84; -1,93</t>
+          <t>-8,41; -1,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,47</t>
+          <t>-5,18; 2,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,54; -1,33</t>
+          <t>-7,4; -1,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,26; -2,27</t>
+          <t>-8,52; -2,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,31</t>
+          <t>-4,33; 1,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,21; -1,59</t>
+          <t>-6,06; -1,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -2,5</t>
+          <t>-7,01; -2,65</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-78,12; 97,14</t>
+          <t>-77,14; 87,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1,76</t>
+          <t>-94,5; 0,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -25,77</t>
+          <t>-100,0; -29,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-77,1; 120,73</t>
+          <t>-80,68; 149,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 6,28</t>
+          <t>-100,0; -4,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-66,38; 41,46</t>
+          <t>-68,25; 41,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-94,37; -45,71</t>
+          <t>-93,61; -37,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -72,68</t>
+          <t>-100,0; -71,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,87</t>
+          <t>-1,84; 2,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,19</t>
+          <t>-1,83; 2,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,0</t>
+          <t>-3,45; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 0,95</t>
+          <t>-3,68; 0,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 5,02</t>
+          <t>-1,62; 4,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 19,62</t>
+          <t>-2,02; 20,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,14</t>
+          <t>-2,35; 1,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 2,56</t>
+          <t>-1,21; 2,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 8,98</t>
+          <t>-1,79; 10,32</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,57; 811,48</t>
+          <t>-61,45; 604,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-87,6; 219,35</t>
+          <t>-87,61; 186,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,86; 418,8</t>
+          <t>-56,13; 383,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-92,04; 1260,42</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 0,14</t>
+          <t>-5,17; 0,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 0,13</t>
+          <t>-5,52; 0,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 5,25</t>
+          <t>-2,46; 4,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 1,4</t>
+          <t>-6,27; 1,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,7; -0,61</t>
+          <t>-7,32; -0,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,0; -0,74</t>
+          <t>-7,28; -0,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,09</t>
+          <t>-4,99; -0,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,52; -0,96</t>
+          <t>-5,61; -1,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 1,03</t>
+          <t>-3,93; 1,01</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-92,15; 76,79</t>
+          <t>-100,0; 49,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 50,85</t>
+          <t>-93,65; 49,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-49,7; 285,6</t>
+          <t>-53,27; 224,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-82,23; 60,27</t>
+          <t>-83,49; 66,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-92,91; -5,83</t>
+          <t>-92,59; 3,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-91,61; -2,4</t>
+          <t>-90,57; -7,74</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-80,86; 0,62</t>
+          <t>-79,18; 8,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-87,7; -20,48</t>
+          <t>-88,08; -25,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-63,95; 39,44</t>
+          <t>-64,76; 31,1</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,97; -0,02</t>
+          <t>-2,98; 0,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,34; -0,63</t>
+          <t>-3,27; -0,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,26; -0,28</t>
+          <t>-3,17; -0,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,56; -0,03</t>
+          <t>-3,45; -0,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,35</t>
+          <t>-3,64; -0,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,5</t>
+          <t>-3,88; 2,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,5</t>
+          <t>-2,74; -0,48</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -1,0</t>
+          <t>-3,18; -0,94</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,57</t>
+          <t>-2,98; 0,85</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-75,95; 6,59</t>
+          <t>-76,25; 7,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-85,45; -26,37</t>
+          <t>-83,6; -11,08</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-78,84; -4,89</t>
+          <t>-79,77; -13,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-73,4; 1,71</t>
+          <t>-74,14; 0,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-76,24; -11,41</t>
+          <t>-75,62; -11,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-87,83; 135,36</t>
+          <t>-88,27; 105,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-67,76; -15,93</t>
+          <t>-66,77; -14,55</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-74,11; -33,47</t>
+          <t>-74,87; -31,51</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-75,89; 38,67</t>
+          <t>-76,16; 43,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; -0,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 2,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; -0,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; -0,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,09; 1,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; -0,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,03; -0,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 0,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; -0,69</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,85%</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 101,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-4,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,03; -0,64</t>
+          <t>-5,42; 2,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 1,26</t>
+          <t>-7,57; -1,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; -0,21</t>
+          <t>-8,67; -2,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -0,8</t>
+          <t>-5,23; 2,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,8</t>
+          <t>-6,94; -0,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,79</t>
+          <t>-7,88; -1,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; -1,11</t>
+          <t>-4,04; 1,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 1,03</t>
+          <t>-6,05; -1,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; -0,86</t>
+          <t>-7,06; -2,64</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-31,67%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-83,77%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-66,77%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-83,78%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-31,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-30,49%</t>
+          <t>-74,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-92,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-31,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-50,61%</t>
+          <t>-78,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-91,17%</t>
+          <t>-95,44%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-79,36; 98,01</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -18,37</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,49; 91,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,68; -5,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -29,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,61; 40,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 125,76</t>
+          <t>-93,07; -40,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -71,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,45</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>5,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 2,15</t>
+          <t>-3,71; 1,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,14; -0,64</t>
+          <t>-1,6; 4,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -1,87</t>
+          <t>-2,2; 46,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 2,6</t>
+          <t>-1,75; 2,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,4; -1,21</t>
+          <t>-2,13; 2,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,52; -2,09</t>
+          <t>-3,71; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 1,09</t>
+          <t>-2,16; 1,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,06; -1,63</t>
+          <t>-1,21; 2,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,01; -2,65</t>
+          <t>-1,6; 27,38</t>
         </is>
       </c>
     </row>
@@ -1170,27 +1170,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-31,72%</t>
+          <t>-53,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-74,76%</t>
+          <t>68,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-92,3%</t>
+          <t>624,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-31,67%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-83,77%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,17 +1200,17 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-31,7%</t>
+          <t>-27,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-78,96%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-95,66%</t>
+          <t>385,06%</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-77,14; 87,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-94,5; 0,41</t>
+          <t>-60,02; 730,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -29,25</t>
+          <t>-90,23; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-80,68; 149,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,25; 41,34</t>
+          <t>-91,67; 204,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-93,61; -37,59</t>
+          <t>-53,94; 374,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -71,32</t>
+          <t>-89,7; 5532,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-1,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,86</t>
+          <t>-6,26; 1,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,47</t>
+          <t>-7,72; -0,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 0,0</t>
+          <t>-7,79; -0,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,93</t>
+          <t>-5,15; 0,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,62</t>
+          <t>-5,24; 0,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 20,93</t>
+          <t>-2,66; 5,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,08</t>
+          <t>-5,1; -0,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,52</t>
+          <t>-5,54; -0,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 10,32</t>
+          <t>-3,76; 1,23</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>-43,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>-68,46%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-67,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-53,56%</t>
+          <t>-64,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>68,52%</t>
+          <t>-65,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>187,21%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-27,44%</t>
+          <t>-52,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>-67,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>-29,48%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,81; 63,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,59; 4,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,11; -5,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 42,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 604,09</t>
+          <t>-92,8; 49,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,36; 268,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-87,61; 186,68</t>
+          <t>-80,2; 3,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-56,13; 383,69</t>
+          <t>-87,74; -20,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,56; 40,68</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 0,51</t>
+          <t>-3,68; -0,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 0,17</t>
+          <t>-3,69; -0,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 4,9</t>
+          <t>-3,66; 14,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 1,65</t>
+          <t>-2,82; -0,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,32; -0,79</t>
+          <t>-3,36; -0,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,28; -0,62</t>
+          <t>-3,15; -0,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -0,06</t>
+          <t>-2,77; -0,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,61; -1,06</t>
+          <t>-3,07; -0,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1,01</t>
+          <t>-2,72; 5,83</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-64,81%</t>
+          <t>-47,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-65,0%</t>
+          <t>-53,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-43,79%</t>
+          <t>-48,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-68,46%</t>
+          <t>-63,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-67,71%</t>
+          <t>-57,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-52,98%</t>
+          <t>-48,08%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-67,13%</t>
+          <t>-58,14%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-30,03%</t>
+          <t>-15,78%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 49,28</t>
+          <t>-73,01; -0,95</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-93,65; 49,97</t>
+          <t>-77,0; -14,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,27; 224,03</t>
+          <t>-87,54; 464,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-83,49; 66,11</t>
+          <t>-75,32; 4,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-92,59; 3,6</t>
+          <t>-83,44; -16,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-90,57; -7,74</t>
+          <t>-79,09; -16,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-79,18; 8,17</t>
+          <t>-69,89; -21,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-88,08; -25,19</t>
+          <t>-74,46; -31,68</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-64,76; 31,1</t>
+          <t>-75,79; 194,8</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,46</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,91</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,7</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,81</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-2,05</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-1,64</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-1,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 0,06</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; -0,48</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; -0,37</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-3,45; -0,04</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; -0,37</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; 2,62</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; -0,48</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-3,18; -0,94</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 0,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-48,55%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-63,38%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-56,48%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-47,24%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-53,49%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-48,08%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-48,08%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-58,14%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-52,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-76,25; 7,54</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-83,6; -11,08</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-79,77; -13,41</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-74,14; 0,65</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-75,62; -11,8</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-88,27; 105,18</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-66,77; -14,55</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-74,87; -31,51</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-76,16; 43,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
